--- a/Experiments/Measurements/Two Banners Side by Side/V path/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/V path/Transformed_Coordinates.xlsx
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>197.9315557613125</v>
+        <v>197.9315557613123</v>
       </c>
       <c r="H53" t="n">
-        <v>25.58348197446936</v>
+        <v>25.58348197446926</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>179.088642970366</v>
+        <v>179.0886429703664</v>
       </c>
       <c r="H54" t="n">
-        <v>27.69751638658154</v>
+        <v>27.69751638658175</v>
       </c>
     </row>
     <row r="55">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>201.2759149007707</v>
+        <v>201.2759149007709</v>
       </c>
       <c r="H55" t="n">
-        <v>30.38566021186674</v>
+        <v>30.38566021186686</v>
       </c>
     </row>
     <row r="56">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>187.5269372836302</v>
+        <v>187.52693728363</v>
       </c>
       <c r="H59" t="n">
-        <v>27.25417352596873</v>
+        <v>27.25417352596863</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>209.9809029410833</v>
+        <v>209.9809029410837</v>
       </c>
       <c r="H60" t="n">
-        <v>22.69882038236954</v>
+        <v>22.69882038236976</v>
       </c>
     </row>
     <row r="61">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>213.5057013047357</v>
+        <v>213.5057013047359</v>
       </c>
       <c r="H61" t="n">
-        <v>21.74491109214638</v>
+        <v>21.74491109214649</v>
       </c>
     </row>
     <row r="62">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>114.7673016335286</v>
+        <v>114.7673016335288</v>
       </c>
       <c r="H62" t="n">
-        <v>48.3615646674892</v>
+        <v>48.3615646674893</v>
       </c>
     </row>
     <row r="63">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>192.6048536451928</v>
+        <v>192.6048536451926</v>
       </c>
       <c r="H65" t="n">
-        <v>29.09862363814078</v>
+        <v>29.09862363814067</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>192.6944366744208</v>
+        <v>192.6944366744212</v>
       </c>
       <c r="H66" t="n">
-        <v>29.68612427050504</v>
+        <v>29.68612427050526</v>
       </c>
     </row>
     <row r="67">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>156.6001509878793</v>
+        <v>156.6001509878795</v>
       </c>
       <c r="H67" t="n">
-        <v>34.34838020423069</v>
+        <v>34.3483802042308</v>
       </c>
     </row>
     <row r="68">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>137.0457320754965</v>
+        <v>137.0457320754967</v>
       </c>
       <c r="H68" t="n">
-        <v>40.44411666518069</v>
+        <v>40.44411666518079</v>
       </c>
     </row>
     <row r="69">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>235.9105900268808</v>
+        <v>235.9105900268806</v>
       </c>
       <c r="H71" t="n">
-        <v>23.12204196780096</v>
+        <v>23.12204196780085</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>215.1317368647134</v>
+        <v>215.1317368647138</v>
       </c>
       <c r="H72" t="n">
-        <v>33.53971220464945</v>
+        <v>33.53971220464969</v>
       </c>
     </row>
     <row r="73">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>157.300113819942</v>
+        <v>157.3001138199422</v>
       </c>
       <c r="H73" t="n">
-        <v>34.20891772774518</v>
+        <v>34.20891772774529</v>
       </c>
     </row>
     <row r="74">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>102.1910065992664</v>
+        <v>102.1910065992662</v>
       </c>
       <c r="H75" t="n">
-        <v>49.90113610244922</v>
+        <v>49.90113610244914</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>249.1600685233665</v>
+        <v>249.1600685233669</v>
       </c>
       <c r="H76" t="n">
-        <v>23.13040378605009</v>
+        <v>23.13040378605032</v>
       </c>
     </row>
     <row r="77">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>111.5146514711233</v>
+        <v>111.5146514711231</v>
       </c>
       <c r="H78" t="n">
-        <v>48.14886303675327</v>
+        <v>48.14886303675321</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>211.1784810325504</v>
+        <v>211.1784810325501</v>
       </c>
       <c r="H79" t="n">
-        <v>22.21810036825778</v>
+        <v>22.21810036825762</v>
       </c>
     </row>
     <row r="80">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>203.6893757448526</v>
+        <v>203.6893757448528</v>
       </c>
       <c r="H81" t="n">
-        <v>25.24232726346226</v>
+        <v>25.24232726346237</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>113.5613616105832</v>
+        <v>113.561361610583</v>
       </c>
       <c r="H82" t="n">
-        <v>49.26943079835941</v>
+        <v>49.26943079835932</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>128.8119213106078</v>
+        <v>128.8119213106076</v>
       </c>
       <c r="H83" t="n">
-        <v>39.77151808957215</v>
+        <v>39.77151808957206</v>
       </c>
     </row>
     <row r="84">
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>187.2445918614743</v>
+        <v>187.2445918614745</v>
       </c>
       <c r="H84" t="n">
-        <v>27.56426907121149</v>
+        <v>27.56426907121158</v>
       </c>
     </row>
     <row r="85">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>75.37792240644845</v>
+        <v>75.37792240644889</v>
       </c>
       <c r="H85" t="n">
-        <v>52.0122266207056</v>
+        <v>52.0122266207057</v>
       </c>
     </row>
     <row r="86">
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>224.340658685702</v>
+        <v>224.3406586857018</v>
       </c>
       <c r="H87" t="n">
-        <v>21.60630465058419</v>
+        <v>21.60630465058408</v>
       </c>
     </row>
     <row r="88">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>229.2041395515942</v>
+        <v>229.204139551594</v>
       </c>
       <c r="H88" t="n">
-        <v>22.28782295908005</v>
+        <v>22.28782295907994</v>
       </c>
     </row>
     <row r="89">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>206.9262408143852</v>
+        <v>206.9262408143854</v>
       </c>
       <c r="H89" t="n">
-        <v>26.20859266444453</v>
+        <v>26.20859266444464</v>
       </c>
     </row>
     <row r="90">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>203.1356850159613</v>
+        <v>203.1356850159611</v>
       </c>
       <c r="H90" t="n">
-        <v>23.83101462584117</v>
+        <v>23.83101462584106</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>151.6033704063827</v>
+        <v>151.6033704063831</v>
       </c>
       <c r="H91" t="n">
-        <v>35.62237227588088</v>
+        <v>35.62237227588103</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>170.1499197042029</v>
+        <v>170.1499197042033</v>
       </c>
       <c r="H92" t="n">
-        <v>34.91770827590349</v>
+        <v>34.91770827590369</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>143.7653804387904</v>
+        <v>143.7653804387906</v>
       </c>
       <c r="H93" t="n">
-        <v>40.32429706019969</v>
+        <v>40.32429706019978</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>132.2436741498118</v>
+        <v>132.2436741498115</v>
       </c>
       <c r="H94" t="n">
-        <v>40.45087926143962</v>
+        <v>40.45087926143947</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>89.51949886765318</v>
+        <v>89.51949886765364</v>
       </c>
       <c r="H95" t="n">
-        <v>53.5396809577682</v>
+        <v>53.5396809577683</v>
       </c>
     </row>
     <row r="96">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>218.7381897125183</v>
+        <v>218.7381897125181</v>
       </c>
       <c r="H97" t="n">
-        <v>25.26078959498018</v>
+        <v>25.26078959498007</v>
       </c>
     </row>
     <row r="98">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>133.3832059518329</v>
+        <v>133.3832059518327</v>
       </c>
       <c r="H98" t="n">
-        <v>41.53397785896718</v>
+        <v>41.5339778589671</v>
       </c>
     </row>
     <row r="99">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>200.6700335860462</v>
+        <v>200.6700335860466</v>
       </c>
       <c r="H99" t="n">
-        <v>28.23910830417516</v>
+        <v>28.23910830417537</v>
       </c>
     </row>
     <row r="100">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>214.9960467263498</v>
+        <v>214.99604672635</v>
       </c>
       <c r="H101" t="n">
-        <v>25.98509379228967</v>
+        <v>25.98509379228977</v>
       </c>
     </row>
   </sheetData>
